--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_3_2.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_3_2.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1523252.39908304</v>
+        <v>-1476518.984154458</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17440984.00909675</v>
+        <v>16794960.12241026</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484447</v>
+        <v>492028.9342484446</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10638800.04024335</v>
+        <v>10640153.24363931</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>205.1247204346227</v>
       </c>
       <c r="C2" t="n">
         <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>159.219297758504</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,19 +713,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>159.9566001199383</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
@@ -829,13 +829,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>84.29140345193706</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>330.169834715921</v>
+        <v>215.6606377486479</v>
       </c>
       <c r="C5" t="n">
-        <v>424.2958575201043</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>424.2958575201043</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>424.2958575201043</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
         <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -1063,7 +1063,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>43.44772037855395</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>216.2017488798277</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
         <v>269.3061403695714</v>
@@ -1133,25 +1133,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>320.0331481255878</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
         <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>161.0734612100933</v>
       </c>
       <c r="Y8" t="n">
         <v>404.2032624633431</v>
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>98.98021706930157</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
         <v>174.9399834978613</v>
@@ -1306,10 +1306,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
@@ -1348,16 +1348,16 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>223.2044474938901</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1376,19 +1376,19 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932887</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629688</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791314499</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
         <v>217.8665548556918</v>
@@ -1427,7 +1427,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>30.15750832133857</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>45.76594660771036</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>30.11288841831158</v>
       </c>
       <c r="D13" t="n">
         <v>164.2192128704925</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>157.6489550149833</v>
@@ -1591,10 +1591,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800233</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
@@ -1664,16 +1664,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655127</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633432</v>
       </c>
     </row>
     <row r="15">
@@ -1774,13 +1774,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>39.57637241135472</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225571</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1862,7 +1862,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1910,7 +1910,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633446</v>
       </c>
     </row>
     <row r="18">
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>126.4702673604302</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
         <v>170.8360944016073</v>
@@ -2014,13 +2014,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>5.990622819017958</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2059,7 +2059,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>269.3061403695714</v>
@@ -2147,7 +2147,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633445</v>
       </c>
     </row>
     <row r="21">
@@ -2254,7 +2254,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,10 +2287,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T22" t="n">
-        <v>122.9742767430576</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
         <v>275.6486707394257</v>
@@ -2491,10 +2491,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2533,13 +2533,13 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
-        <v>284.0859530482738</v>
+        <v>144.4937753855477</v>
       </c>
       <c r="W25" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
-        <v>13.51446909089648</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
         <v>225.1454739790328</v>
@@ -2728,10 +2728,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>35.5167825707944</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2770,7 +2770,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
         <v>269.3061403695714</v>
@@ -2965,7 +2965,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>123.2901323038658</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3007,7 +3007,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
         <v>269.3061403695714</v>
@@ -3187,25 +3187,25 @@
         <v>173.6647221930499</v>
       </c>
       <c r="C34" t="n">
-        <v>154.60038406286</v>
+        <v>154.6003840628599</v>
       </c>
       <c r="D34" t="n">
         <v>147.9835025317452</v>
       </c>
       <c r="E34" t="n">
-        <v>151.8247133730228</v>
+        <v>151.8247133730227</v>
       </c>
       <c r="F34" t="n">
         <v>158.704273159114</v>
       </c>
       <c r="G34" t="n">
-        <v>147.6996518856833</v>
+        <v>147.6996518856832</v>
       </c>
       <c r="H34" t="n">
         <v>122.2674422277819</v>
       </c>
       <c r="I34" t="n">
-        <v>71.53763939432406</v>
+        <v>71.53763939432405</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>4.96793274293449</v>
+        <v>4.967932742934472</v>
       </c>
       <c r="S34" t="n">
-        <v>141.4132446762352</v>
+        <v>141.4132446762359</v>
       </c>
       <c r="T34" t="n">
         <v>227.1849416185819</v>
@@ -3253,7 +3253,7 @@
         <v>226.7021267811743</v>
       </c>
       <c r="Y34" t="n">
-        <v>208.9097636402855</v>
+        <v>208.9097636402854</v>
       </c>
     </row>
     <row r="35">
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>405.8008644413113</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>417.5253377496635</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>415.3149766385525</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>413.2012870545404</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>407.353044956137</v>
       </c>
       <c r="G35" t="n">
-        <v>397.3838530629687</v>
+        <v>381.1481427242214</v>
       </c>
       <c r="H35" t="n">
-        <v>286.2388530112159</v>
+        <v>270.0031426724685</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>82.81535507800136</v>
+        <v>66.57964473925399</v>
       </c>
       <c r="T35" t="n">
-        <v>217.8665548556918</v>
+        <v>201.6308445169444</v>
       </c>
       <c r="U35" t="n">
-        <v>256.6300796561533</v>
+        <v>240.3943693174059</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>342.7550702267644</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>384.5711897043296</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>398.715328447735</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>387.9675521245957</v>
       </c>
     </row>
     <row r="36">
@@ -3424,25 +3424,25 @@
         <v>173.6647221930499</v>
       </c>
       <c r="C37" t="n">
-        <v>154.60038406286</v>
+        <v>154.6003840628599</v>
       </c>
       <c r="D37" t="n">
         <v>147.9835025317452</v>
       </c>
       <c r="E37" t="n">
-        <v>151.8247133730228</v>
+        <v>151.8247133730227</v>
       </c>
       <c r="F37" t="n">
         <v>158.704273159114</v>
       </c>
       <c r="G37" t="n">
-        <v>147.6996518856833</v>
+        <v>147.6996518856832</v>
       </c>
       <c r="H37" t="n">
         <v>122.2674422277819</v>
       </c>
       <c r="I37" t="n">
-        <v>71.53763939432308</v>
+        <v>71.53763939432405</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>4.96793274293449</v>
+        <v>4.967932742934044</v>
       </c>
       <c r="S37" t="n">
-        <v>141.413244676236</v>
+        <v>141.4132446762359</v>
       </c>
       <c r="T37" t="n">
         <v>227.1849416185819</v>
@@ -3490,7 +3490,7 @@
         <v>226.7021267811743</v>
       </c>
       <c r="Y37" t="n">
-        <v>208.9097636402855</v>
+        <v>208.9097636402854</v>
       </c>
     </row>
     <row r="38">
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>66.57964473925401</v>
+        <v>66.57964473925399</v>
       </c>
       <c r="T38" t="n">
         <v>201.6308445169444</v>
@@ -3661,25 +3661,25 @@
         <v>173.6647221930499</v>
       </c>
       <c r="C40" t="n">
-        <v>154.60038406286</v>
+        <v>154.6003840628599</v>
       </c>
       <c r="D40" t="n">
         <v>147.9835025317452</v>
       </c>
       <c r="E40" t="n">
-        <v>151.8247133730228</v>
+        <v>151.8247133730227</v>
       </c>
       <c r="F40" t="n">
         <v>158.704273159114</v>
       </c>
       <c r="G40" t="n">
-        <v>147.6996518856833</v>
+        <v>147.6996518856832</v>
       </c>
       <c r="H40" t="n">
         <v>122.2674422277819</v>
       </c>
       <c r="I40" t="n">
-        <v>71.53763939432406</v>
+        <v>71.53763939432345</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>4.96793274293449</v>
+        <v>4.967932742934465</v>
       </c>
       <c r="S40" t="n">
-        <v>141.413244676236</v>
+        <v>141.4132446762359</v>
       </c>
       <c r="T40" t="n">
         <v>227.1849416185819</v>
@@ -3727,7 +3727,7 @@
         <v>226.7021267811743</v>
       </c>
       <c r="Y40" t="n">
-        <v>208.9097636402855</v>
+        <v>208.9097636402854</v>
       </c>
     </row>
     <row r="41">
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>66.57964473925401</v>
+        <v>66.57964473925399</v>
       </c>
       <c r="T41" t="n">
         <v>201.6308445169444</v>
@@ -3898,25 +3898,25 @@
         <v>173.6647221930499</v>
       </c>
       <c r="C43" t="n">
-        <v>154.60038406286</v>
+        <v>154.6003840628599</v>
       </c>
       <c r="D43" t="n">
         <v>147.9835025317452</v>
       </c>
       <c r="E43" t="n">
-        <v>151.8247133730228</v>
+        <v>151.8247133730227</v>
       </c>
       <c r="F43" t="n">
         <v>158.704273159114</v>
       </c>
       <c r="G43" t="n">
-        <v>147.6996518856833</v>
+        <v>147.6996518856832</v>
       </c>
       <c r="H43" t="n">
         <v>122.2674422277819</v>
       </c>
       <c r="I43" t="n">
-        <v>71.53763939432406</v>
+        <v>71.53763939432405</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>4.96793274293449</v>
+        <v>4.967932742934465</v>
       </c>
       <c r="S43" t="n">
-        <v>141.413244676236</v>
+        <v>141.4132446762359</v>
       </c>
       <c r="T43" t="n">
         <v>227.1849416185819</v>
@@ -3964,7 +3964,7 @@
         <v>226.7021267811743</v>
       </c>
       <c r="Y43" t="n">
-        <v>208.9097636402855</v>
+        <v>208.9097636402854</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>66.57964473925401</v>
+        <v>66.57964473925399</v>
       </c>
       <c r="T44" t="n">
         <v>201.6308445169444</v>
@@ -4135,25 +4135,25 @@
         <v>173.6647221930499</v>
       </c>
       <c r="C46" t="n">
-        <v>154.60038406286</v>
+        <v>154.6003840628599</v>
       </c>
       <c r="D46" t="n">
         <v>147.9835025317452</v>
       </c>
       <c r="E46" t="n">
-        <v>151.8247133730228</v>
+        <v>151.8247133730227</v>
       </c>
       <c r="F46" t="n">
         <v>158.704273159114</v>
       </c>
       <c r="G46" t="n">
-        <v>147.6996518856833</v>
+        <v>147.6996518856832</v>
       </c>
       <c r="H46" t="n">
-        <v>122.2674422277807</v>
+        <v>122.2674422277819</v>
       </c>
       <c r="I46" t="n">
-        <v>71.53763939432406</v>
+        <v>71.53763939432405</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>4.96793274293449</v>
+        <v>4.967932742934465</v>
       </c>
       <c r="S46" t="n">
-        <v>141.413244676236</v>
+        <v>141.4132446762359</v>
       </c>
       <c r="T46" t="n">
         <v>227.1849416185819</v>
@@ -4201,7 +4201,7 @@
         <v>226.7021267811743</v>
       </c>
       <c r="Y46" t="n">
-        <v>208.9097636402855</v>
+        <v>208.9097636402854</v>
       </c>
     </row>
   </sheetData>
@@ -4304,52 +4304,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>947.0019290635947</v>
+        <v>927.0453391466101</v>
       </c>
       <c r="C2" t="n">
-        <v>912.8998602874221</v>
+        <v>892.9432703704374</v>
       </c>
       <c r="D2" t="n">
-        <v>484.3181860246905</v>
+        <v>892.9432703704374</v>
       </c>
       <c r="E2" t="n">
-        <v>484.3181860246905</v>
+        <v>863.2089295691367</v>
       </c>
       <c r="F2" t="n">
-        <v>323.4906125312521</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="G2" t="n">
-        <v>323.4906125312521</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I2" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L2" t="n">
-        <v>437.0247332457074</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="M2" t="n">
-        <v>857.0776321906106</v>
+        <v>1294.102365436318</v>
       </c>
       <c r="N2" t="n">
-        <v>1277.130531135514</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="O2" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="P2" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="Q2" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R2" t="n">
         <v>1697.183430080417</v>
@@ -4361,19 +4361,19 @@
         <v>1393.464329137293</v>
       </c>
       <c r="U2" t="n">
-        <v>1393.464329137293</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="V2" t="n">
-        <v>1393.464329137293</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="W2" t="n">
-        <v>1392.64927858873</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="X2" t="n">
-        <v>1377.547219208445</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="Y2" t="n">
-        <v>1373.301499548503</v>
+        <v>1134.24202645431</v>
       </c>
     </row>
     <row r="3">
@@ -4413,16 +4413,16 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M3" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N3" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O3" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P3" t="n">
         <v>1159.957753041174</v>
@@ -4462,49 +4462,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>947.4105542393174</v>
+        <v>1020.036210543161</v>
       </c>
       <c r="C4" t="n">
-        <v>774.8488427225424</v>
+        <v>847.4744990263858</v>
       </c>
       <c r="D4" t="n">
-        <v>608.9708499240651</v>
+        <v>685.9021756729128</v>
       </c>
       <c r="E4" t="n">
-        <v>439.2128461748023</v>
+        <v>516.14417192365</v>
       </c>
       <c r="F4" t="n">
-        <v>262.5057921365585</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="G4" t="n">
-        <v>262.5057921365585</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>68.8461756808652</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>343.6046302520008</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>761.8145120199619</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="M4" t="n">
-        <v>761.8145120199619</v>
+        <v>872.2064493144727</v>
       </c>
       <c r="N4" t="n">
-        <v>761.8145120199619</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
@@ -4513,25 +4513,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T4" t="n">
-        <v>1697.183430080417</v>
+        <v>1292.062614956869</v>
       </c>
       <c r="U4" t="n">
-        <v>1697.183430080417</v>
+        <v>1292.062614956869</v>
       </c>
       <c r="V4" t="n">
-        <v>1697.183430080417</v>
+        <v>1292.062614956869</v>
       </c>
       <c r="W4" t="n">
-        <v>1612.040598310784</v>
+        <v>1020.036210543161</v>
       </c>
       <c r="X4" t="n">
-        <v>1366.648843644196</v>
+        <v>1020.036210543161</v>
       </c>
       <c r="Y4" t="n">
-        <v>1139.229172958305</v>
+        <v>1020.036210543161</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1343.515716940192</v>
+        <v>2073.224678607652</v>
       </c>
       <c r="C5" t="n">
-        <v>914.93404267746</v>
+        <v>1635.082205791075</v>
       </c>
       <c r="D5" t="n">
-        <v>486.3523684147282</v>
+        <v>1199.17242096552</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>765.3976761238149</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>741.5706505734267</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>340.1728191966906</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>51.04266463990682</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704682</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>485.8805627199647</v>
       </c>
       <c r="K5" t="n">
-        <v>453.9965675465116</v>
+        <v>1112.375769149669</v>
       </c>
       <c r="L5" t="n">
-        <v>453.9965675465116</v>
+        <v>1112.375769149669</v>
       </c>
       <c r="M5" t="n">
-        <v>687.9235674375537</v>
+        <v>1112.375769149669</v>
       </c>
       <c r="N5" t="n">
-        <v>687.9235674375537</v>
+        <v>1189.145706210985</v>
       </c>
       <c r="O5" t="n">
-        <v>1107.976466382457</v>
+        <v>1189.145706210985</v>
       </c>
       <c r="P5" t="n">
-        <v>1528.02936532736</v>
+        <v>1815.64091264069</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2362.139698599284</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2531.293763352341</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2531.293763352341</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2311.22653622538</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2311.22653622538</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>2311.22653622538</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.368379531855</v>
+        <v>2310.411485676817</v>
       </c>
       <c r="X5" t="n">
-        <v>1681.26632015157</v>
+        <v>2295.309426296532</v>
       </c>
       <c r="Y5" t="n">
-        <v>1677.020600491627</v>
+        <v>2291.063706636589</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>556.7976202583396</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>450.3411590949819</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.2508702415352</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>261.1304555684889</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>177.7466171846505</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>92.36152745083436</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704682</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>50.62587526704682</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>50.62587526704682</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>50.62587526704682</v>
       </c>
       <c r="L6" t="n">
-        <v>1224.671464618085</v>
+        <v>50.62587526704682</v>
       </c>
       <c r="M6" t="n">
-        <v>1580.010651986078</v>
+        <v>460.875223886447</v>
       </c>
       <c r="N6" t="n">
-        <v>1580.010651986078</v>
+        <v>1087.370430316151</v>
       </c>
       <c r="O6" t="n">
-        <v>1580.010651986078</v>
+        <v>1713.865636745856</v>
       </c>
       <c r="P6" t="n">
-        <v>1580.010651986078</v>
+        <v>1713.865636745856</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1713.865636745856</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1713.865636745856</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.410199194239</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.23155552484</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1343.895008524809</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1144.777490586808</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.454736320002</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>804.587300558882</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>678.1015213381028</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>542.1413766661235</v>
+        <v>602.7101695725255</v>
       </c>
       <c r="C7" t="n">
-        <v>369.5796651493484</v>
+        <v>430.1484580557504</v>
       </c>
       <c r="D7" t="n">
-        <v>203.7016723508711</v>
+        <v>264.2704652572731</v>
       </c>
       <c r="E7" t="n">
-        <v>33.94366860160834</v>
+        <v>94.5124615080104</v>
       </c>
       <c r="F7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704682</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704682</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704682</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704682</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704682</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>325.3843298381824</v>
       </c>
       <c r="L7" t="n">
-        <v>89.90148899448771</v>
+        <v>743.5942116061434</v>
       </c>
       <c r="M7" t="n">
-        <v>509.954387939391</v>
+        <v>1203.078078787056</v>
       </c>
       <c r="N7" t="n">
-        <v>930.0072868842942</v>
+        <v>1645.336881944701</v>
       </c>
       <c r="O7" t="n">
-        <v>1349.676536110076</v>
+        <v>2065.006131170482</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2412.513025140824</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2531.293763352341</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2509.875942057713</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>2350.63457335571</v>
       </c>
       <c r="T7" t="n">
-        <v>1697.183430080417</v>
+        <v>2104.755126934165</v>
       </c>
       <c r="U7" t="n">
-        <v>1697.183430080417</v>
+        <v>1826.32212618727</v>
       </c>
       <c r="V7" t="n">
-        <v>1478.797825151298</v>
+        <v>1539.3666180577</v>
       </c>
       <c r="W7" t="n">
-        <v>1206.77142073759</v>
+        <v>1267.340213643992</v>
       </c>
       <c r="X7" t="n">
-        <v>961.3796660710025</v>
+        <v>1021.948458977404</v>
       </c>
       <c r="Y7" t="n">
-        <v>733.9599953851107</v>
+        <v>794.5287882915127</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>846.6806259663152</v>
+        <v>1671.959615828829</v>
       </c>
       <c r="C8" t="n">
-        <v>523.4148197788528</v>
+        <v>1233.817143012253</v>
       </c>
       <c r="D8" t="n">
-        <v>491.5454389937014</v>
+        <v>1201.947762227101</v>
       </c>
       <c r="E8" t="n">
-        <v>461.8110981924006</v>
+        <v>768.1730173853965</v>
       </c>
       <c r="F8" t="n">
-        <v>33.94366860160834</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>453.9965675465116</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>453.9965675465116</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L8" t="n">
-        <v>453.9965675465116</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="M8" t="n">
-        <v>687.9235674375537</v>
+        <v>2035.921380153963</v>
       </c>
       <c r="N8" t="n">
-        <v>1107.976466382457</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="O8" t="n">
-        <v>1107.976466382457</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W8" t="n">
-        <v>1696.368379531855</v>
+        <v>2669.245775882865</v>
       </c>
       <c r="X8" t="n">
-        <v>1681.26632015157</v>
+        <v>2506.545310014084</v>
       </c>
       <c r="Y8" t="n">
-        <v>1272.980196451223</v>
+        <v>2098.259186313737</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>804.6185656731816</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="L9" t="n">
-        <v>1159.957753041174</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="M9" t="n">
-        <v>1159.957753041174</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="N9" t="n">
-        <v>1159.957753041174</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="O9" t="n">
-        <v>1159.957753041174</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>516.14417192365</v>
+        <v>992.5572028308845</v>
       </c>
       <c r="C10" t="n">
-        <v>516.14417192365</v>
+        <v>819.9954913141095</v>
       </c>
       <c r="D10" t="n">
-        <v>516.14417192365</v>
+        <v>654.1174985156322</v>
       </c>
       <c r="E10" t="n">
-        <v>516.14417192365</v>
+        <v>484.3594947663694</v>
       </c>
       <c r="F10" t="n">
-        <v>339.4371178854062</v>
+        <v>307.6524407281256</v>
       </c>
       <c r="G10" t="n">
-        <v>173.8458429112338</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="H10" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>437.4083829648294</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>857.4612819097326</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1537.942061378414</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T10" t="n">
-        <v>1292.062614956869</v>
+        <v>2402.763558715255</v>
       </c>
       <c r="U10" t="n">
-        <v>1013.629614209975</v>
+        <v>2124.330557968361</v>
       </c>
       <c r="V10" t="n">
-        <v>788.1705763373584</v>
+        <v>1837.375049838791</v>
       </c>
       <c r="W10" t="n">
-        <v>516.14417192365</v>
+        <v>1565.348645425083</v>
       </c>
       <c r="X10" t="n">
-        <v>516.14417192365</v>
+        <v>1319.956890758495</v>
       </c>
       <c r="Y10" t="n">
-        <v>516.14417192365</v>
+        <v>1092.537220072603</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1782.330840859294</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C11" t="n">
-        <v>1344.188368042717</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D11" t="n">
-        <v>908.2785832171617</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E11" t="n">
-        <v>908.2785832171617</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>480.4111536263694</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G11" t="n">
-        <v>79.01332224963326</v>
+        <v>391.8077842004235</v>
       </c>
       <c r="H11" t="n">
-        <v>79.01332224963326</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I11" t="n">
-        <v>79.01332224963326</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>514.2680097025511</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>514.2680097025511</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>514.2680097025511</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M11" t="n">
-        <v>514.2680097025511</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N11" t="n">
-        <v>1428.913524097403</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O11" t="n">
-        <v>2406.703386936615</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P11" t="n">
-        <v>3235.013261770011</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>3781.512047728606</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R11" t="n">
-        <v>3950.666112481663</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S11" t="n">
-        <v>3950.666112481663</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T11" t="n">
-        <v>3730.598885354701</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U11" t="n">
-        <v>3471.376582671718</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V11" t="n">
-        <v>3440.914453054204</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W11" t="n">
-        <v>3036.058998465237</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
-        <v>2616.916535044548</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y11" t="n">
-        <v>2208.630411344202</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>585.1850672409261</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>478.7286060775683</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>383.6383172241216</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>289.5179025510753</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>206.1340641672369</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>120.7489744334208</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>79.01332224963326</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>105.0769954100909</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>429.6353203763032</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>1084.341367002027</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L12" t="n">
-        <v>1084.341367002027</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M12" t="n">
-        <v>1084.341367002027</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N12" t="n">
-        <v>1084.341367002027</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O12" t="n">
-        <v>1084.341367002027</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P12" t="n">
-        <v>1084.341367002027</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1625.080305634102</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1742.253083728442</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1678.797646176825</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1548.619002507427</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1372.282455507395</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1173.164937569394</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>987.8421833025884</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>832.9747475414684</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>706.4889683206892</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1158.071482861515</v>
+        <v>1039.174348374281</v>
       </c>
       <c r="C13" t="n">
-        <v>985.5097713447395</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D13" t="n">
-        <v>819.6317785462622</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E13" t="n">
-        <v>649.8737747969996</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F13" t="n">
-        <v>473.1667207587557</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G13" t="n">
-        <v>307.5754457845834</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H13" t="n">
-        <v>167.6732714749579</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I13" t="n">
-        <v>79.01332224963326</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>165.5930074143231</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>440.3514619854587</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>858.5613437534198</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1318.045210934333</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1760.304014091977</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2179.973263317759</v>
+        <v>2203.220781338903</v>
       </c>
       <c r="P13" t="n">
-        <v>2527.480157288101</v>
+        <v>2550.727675309245</v>
       </c>
       <c r="Q13" t="n">
-        <v>2695.672932152433</v>
+        <v>2718.920450173577</v>
       </c>
       <c r="R13" t="n">
-        <v>2674.255110857805</v>
+        <v>2718.920450173577</v>
       </c>
       <c r="S13" t="n">
-        <v>2515.013742155801</v>
+        <v>2559.679081471574</v>
       </c>
       <c r="T13" t="n">
-        <v>2269.134295734256</v>
+        <v>2313.799635050029</v>
       </c>
       <c r="U13" t="n">
-        <v>1990.701294987362</v>
+        <v>2035.366634303134</v>
       </c>
       <c r="V13" t="n">
-        <v>1703.745786857792</v>
+        <v>1748.411126173565</v>
       </c>
       <c r="W13" t="n">
-        <v>1431.719382444084</v>
+        <v>1476.384721759856</v>
       </c>
       <c r="X13" t="n">
-        <v>1431.719382444084</v>
+        <v>1230.992967093269</v>
       </c>
       <c r="Y13" t="n">
-        <v>1204.299711758192</v>
+        <v>1230.992967093269</v>
       </c>
     </row>
     <row r="14">
@@ -5303,13 +5303,13 @@
         <v>5113.042013538981</v>
       </c>
       <c r="S14" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T14" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U14" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V14" t="n">
         <v>4187.483659846699</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>790.3368563937634</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C16" t="n">
-        <v>617.7751448769883</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D16" t="n">
-        <v>451.897152078511</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E16" t="n">
-        <v>282.1391483292483</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F16" t="n">
-        <v>242.1630145804051</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G16" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H16" t="n">
         <v>102.2608402707796</v>
@@ -5449,37 +5449,37 @@
         <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.220781338903</v>
       </c>
       <c r="P16" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309245</v>
       </c>
       <c r="Q16" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173577</v>
       </c>
       <c r="R16" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173577</v>
       </c>
       <c r="S16" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T16" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U16" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V16" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W16" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X16" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y16" t="n">
-        <v>982.1554751127505</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="17">
@@ -5489,52 +5489,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K17" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L17" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M17" t="n">
-        <v>2588.899621423628</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423628</v>
+        <v>2758.053686176684</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993934</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P17" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580387</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R17" t="n">
         <v>5113.042013538981</v>
@@ -5558,7 +5558,7 @@
         <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="18">
@@ -5647,49 +5647,49 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>875.8255515988633</v>
+        <v>1098.710185817961</v>
       </c>
       <c r="C19" t="n">
-        <v>703.2638400820882</v>
+        <v>926.1484743011855</v>
       </c>
       <c r="D19" t="n">
-        <v>537.3858472836109</v>
+        <v>760.2704815027082</v>
       </c>
       <c r="E19" t="n">
-        <v>367.6278435343481</v>
+        <v>590.5124777534454</v>
       </c>
       <c r="F19" t="n">
-        <v>190.9207894961043</v>
+        <v>413.8054237152016</v>
       </c>
       <c r="G19" t="n">
-        <v>190.9207894961043</v>
+        <v>248.2141487410293</v>
       </c>
       <c r="H19" t="n">
-        <v>190.9207894961043</v>
+        <v>108.3119744314038</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J19" t="n">
-        <v>188.8405254354695</v>
+        <v>188.8405254354684</v>
       </c>
       <c r="K19" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066041</v>
       </c>
       <c r="L19" t="n">
-        <v>881.8088617745661</v>
+        <v>881.8088617745651</v>
       </c>
       <c r="M19" t="n">
-        <v>1341.292728955479</v>
+        <v>1341.292728955478</v>
       </c>
       <c r="N19" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113123</v>
       </c>
       <c r="O19" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.220781338904</v>
       </c>
       <c r="P19" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309246</v>
       </c>
       <c r="Q19" t="n">
         <v>2718.920450173579</v>
@@ -5698,25 +5698,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2559.679081471576</v>
+        <v>2559.679081471575</v>
       </c>
       <c r="T19" t="n">
-        <v>2313.799635050031</v>
+        <v>2313.79963505003</v>
       </c>
       <c r="U19" t="n">
-        <v>2035.366634303136</v>
+        <v>2035.366634303135</v>
       </c>
       <c r="V19" t="n">
-        <v>1748.411126173566</v>
+        <v>2035.366634303135</v>
       </c>
       <c r="W19" t="n">
-        <v>1476.384721759858</v>
+        <v>1763.340229889427</v>
       </c>
       <c r="X19" t="n">
-        <v>1230.99296709327</v>
+        <v>1517.94847522284</v>
       </c>
       <c r="Y19" t="n">
-        <v>1003.573296407379</v>
+        <v>1290.528804536948</v>
       </c>
     </row>
     <row r="20">
@@ -5738,10 +5738,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H20" t="n">
         <v>102.6776296436396</v>
@@ -5753,49 +5753,49 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K20" t="n">
-        <v>936.6111322289576</v>
+        <v>775.0235620688178</v>
       </c>
       <c r="L20" t="n">
-        <v>2011.671098481817</v>
+        <v>1850.083528321677</v>
       </c>
       <c r="M20" t="n">
-        <v>2011.671098481817</v>
+        <v>3007.131363532228</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423628</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993934</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P20" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R20" t="n">
         <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="21">
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1092.659051657336</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C22" t="n">
-        <v>920.0973401405612</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D22" t="n">
-        <v>754.2193473420839</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E22" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F22" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G22" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
         <v>102.2608402707796</v>
@@ -5935,25 +5935,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T22" t="n">
-        <v>2594.704009018975</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U22" t="n">
-        <v>2316.271008272081</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V22" t="n">
-        <v>2029.315500142511</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W22" t="n">
-        <v>1757.289095728803</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X22" t="n">
-        <v>1511.897341062215</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y22" t="n">
-        <v>1284.477670376323</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="23">
@@ -5993,10 +5993,10 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>1371.865819681875</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2528.913654892426</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N23" t="n">
         <v>2588.899621423627</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6169,28 +6169,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2697.502628878951</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T25" t="n">
-        <v>2451.623182457406</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U25" t="n">
-        <v>2173.190181710511</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V25" t="n">
-        <v>1886.234673580942</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1614.208269167233</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1077.292364523333</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>904.7306530065579</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>738.8526602080806</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>569.0946564588178</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>392.387602420574</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>226.7963274464017</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6406,28 +6406,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>2013.948813008508</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>1741.922408594799</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1496.530653928212</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>1269.11098324232</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1077.292364523333</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>904.7306530065579</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>738.8526602080806</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>569.0946564588178</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>392.387602420574</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>226.7963274464017</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
         <v>102.2608402707796</v>
@@ -6643,28 +6643,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>2013.948813008508</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>1741.922408594799</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1496.530653928212</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>1269.11098324232</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6707,7 +6707,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N32" t="n">
         <v>2588.899621423627</v>
@@ -6835,19 +6835,19 @@
         <v>1066.521048992528</v>
       </c>
       <c r="C34" t="n">
-        <v>910.3590448886293</v>
+        <v>910.3590448886291</v>
       </c>
       <c r="D34" t="n">
-        <v>760.8807595030281</v>
+        <v>760.880759503028</v>
       </c>
       <c r="E34" t="n">
-        <v>607.5224631666415</v>
+        <v>607.5224631666414</v>
       </c>
       <c r="F34" t="n">
-        <v>447.2151165412738</v>
+        <v>447.2151165412737</v>
       </c>
       <c r="G34" t="n">
-        <v>298.0235489799776</v>
+        <v>298.0235489799775</v>
       </c>
       <c r="H34" t="n">
         <v>174.5210820832282</v>
@@ -6856,7 +6856,7 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J34" t="n">
-        <v>204.9138786708293</v>
+        <v>204.9138786708294</v>
       </c>
       <c r="K34" t="n">
         <v>495.7456864773249</v>
@@ -6883,19 +6883,19 @@
         <v>2842.489162174706</v>
       </c>
       <c r="S34" t="n">
-        <v>2699.64750088558</v>
+        <v>2699.647500885579</v>
       </c>
       <c r="T34" t="n">
-        <v>2470.167761876911</v>
+        <v>2470.16776187691</v>
       </c>
       <c r="U34" t="n">
-        <v>2208.134468542892</v>
+        <v>2208.134468542891</v>
       </c>
       <c r="V34" t="n">
-        <v>1937.578667826199</v>
+        <v>1937.578667826198</v>
       </c>
       <c r="W34" t="n">
-        <v>1681.951970825367</v>
+        <v>1681.951970825366</v>
       </c>
       <c r="X34" t="n">
         <v>1452.959923571655</v>
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2528.900047651789</v>
+        <v>2425.39087720671</v>
       </c>
       <c r="C35" t="n">
-        <v>2090.757574835212</v>
+        <v>2003.64811180301</v>
       </c>
       <c r="D35" t="n">
-        <v>1654.847790009657</v>
+        <v>1584.138034390331</v>
       </c>
       <c r="E35" t="n">
-        <v>1221.073045167952</v>
+        <v>1166.762996961502</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771597</v>
+        <v>755.2952747835856</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004232</v>
+        <v>370.2971508197255</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436392</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I35" t="n">
-        <v>102.2608402707796</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J35" t="n">
-        <v>537.5155277236975</v>
+        <v>532.8213911287357</v>
       </c>
       <c r="K35" t="n">
-        <v>1371.865819681875</v>
+        <v>1367.171683086914</v>
       </c>
       <c r="L35" t="n">
-        <v>2446.925785934734</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="M35" t="n">
-        <v>2446.925785934734</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423627</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993933</v>
+        <v>3422.411315910079</v>
       </c>
       <c r="P35" t="n">
-        <v>4397.38916282733</v>
+        <v>4250.721190743476</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785924</v>
+        <v>4797.21997670207</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.04201353898</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722817</v>
+        <v>4811.083017387606</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595856</v>
+        <v>4607.415497673521</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912873</v>
+        <v>4364.592902403414</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.483659846699</v>
+        <v>4018.375659750116</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257733</v>
+        <v>3629.919912574026</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837043</v>
+        <v>3227.177156566213</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136697</v>
+        <v>2835.290740278742</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>608.4325852620724</v>
+        <v>603.7384486671107</v>
       </c>
       <c r="C36" t="n">
-        <v>501.9761240987147</v>
+        <v>497.2819875037529</v>
       </c>
       <c r="D36" t="n">
-        <v>406.885835245268</v>
+        <v>402.1916986503062</v>
       </c>
       <c r="E36" t="n">
-        <v>312.7654205722217</v>
+        <v>308.0712839772599</v>
       </c>
       <c r="F36" t="n">
-        <v>229.3815821883833</v>
+        <v>224.6874455934215</v>
       </c>
       <c r="G36" t="n">
-        <v>143.9964924545671</v>
+        <v>139.3023558596054</v>
       </c>
       <c r="H36" t="n">
-        <v>102.2608402707796</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I36" t="n">
-        <v>128.3245134312372</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="J36" t="n">
-        <v>452.8828383974496</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="K36" t="n">
-        <v>1107.588885023173</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="L36" t="n">
-        <v>1107.588885023173</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="M36" t="n">
-        <v>1107.588885023173</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="N36" t="n">
-        <v>1107.588885023173</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="O36" t="n">
-        <v>1107.588885023173</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="P36" t="n">
-        <v>1107.588885023173</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="Q36" t="n">
-        <v>1648.327823655249</v>
+        <v>1643.633687060287</v>
       </c>
       <c r="R36" t="n">
-        <v>1765.500601749588</v>
+        <v>1760.806465154627</v>
       </c>
       <c r="S36" t="n">
-        <v>1702.045164197971</v>
+        <v>1697.35102760301</v>
       </c>
       <c r="T36" t="n">
-        <v>1571.866520528573</v>
+        <v>1567.172383933611</v>
       </c>
       <c r="U36" t="n">
-        <v>1395.529973528541</v>
+        <v>1390.83583693358</v>
       </c>
       <c r="V36" t="n">
-        <v>1196.412455590541</v>
+        <v>1191.718318995579</v>
       </c>
       <c r="W36" t="n">
-        <v>1011.089701323735</v>
+        <v>1006.395564728773</v>
       </c>
       <c r="X36" t="n">
-        <v>856.2222655626148</v>
+        <v>851.5281289676531</v>
       </c>
       <c r="Y36" t="n">
-        <v>729.7364863418355</v>
+        <v>725.0423497468738</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1066.521048992527</v>
+        <v>1061.826912397566</v>
       </c>
       <c r="C37" t="n">
-        <v>910.3590448886283</v>
+        <v>905.6649082936674</v>
       </c>
       <c r="D37" t="n">
-        <v>760.8807595030271</v>
+        <v>756.1866229080662</v>
       </c>
       <c r="E37" t="n">
-        <v>607.5224631666405</v>
+        <v>602.8283265716796</v>
       </c>
       <c r="F37" t="n">
-        <v>447.2151165412728</v>
+        <v>442.520979946312</v>
       </c>
       <c r="G37" t="n">
-        <v>298.0235489799766</v>
+        <v>293.3294123850158</v>
       </c>
       <c r="H37" t="n">
-        <v>174.5210820832272</v>
+        <v>169.8269454882664</v>
       </c>
       <c r="I37" t="n">
-        <v>102.2608402707796</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J37" t="n">
-        <v>204.9138786708293</v>
+        <v>200.2197420758676</v>
       </c>
       <c r="K37" t="n">
-        <v>495.7456864773249</v>
+        <v>491.0515498823631</v>
       </c>
       <c r="L37" t="n">
-        <v>930.0289214806457</v>
+        <v>925.334784885684</v>
       </c>
       <c r="M37" t="n">
-        <v>1405.586141896919</v>
+        <v>1400.892005301957</v>
       </c>
       <c r="N37" t="n">
-        <v>1863.918298289923</v>
+        <v>1859.224161694961</v>
       </c>
       <c r="O37" t="n">
-        <v>2299.660900751064</v>
+        <v>2294.966764156103</v>
       </c>
       <c r="P37" t="n">
-        <v>2663.241147956766</v>
+        <v>2658.547011361804</v>
       </c>
       <c r="Q37" t="n">
-        <v>2847.507276056458</v>
+        <v>2842.813139461496</v>
       </c>
       <c r="R37" t="n">
-        <v>2842.489162174706</v>
+        <v>2837.795025579745</v>
       </c>
       <c r="S37" t="n">
-        <v>2699.647500885579</v>
+        <v>2694.953364290617</v>
       </c>
       <c r="T37" t="n">
-        <v>2470.16776187691</v>
+        <v>2465.473625281948</v>
       </c>
       <c r="U37" t="n">
-        <v>2208.134468542891</v>
+        <v>2203.44033194793</v>
       </c>
       <c r="V37" t="n">
-        <v>1937.578667826198</v>
+        <v>1932.884531231236</v>
       </c>
       <c r="W37" t="n">
-        <v>1681.951970825366</v>
+        <v>1677.257834230404</v>
       </c>
       <c r="X37" t="n">
-        <v>1452.959923571654</v>
+        <v>1448.265786976693</v>
       </c>
       <c r="Y37" t="n">
-        <v>1241.939960298638</v>
+        <v>1237.245823703677</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7148,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2425.390877206711</v>
+        <v>2425.39087720671</v>
       </c>
       <c r="C38" t="n">
-        <v>2003.64811180301</v>
+        <v>2003.648111803009</v>
       </c>
       <c r="D38" t="n">
-        <v>1584.138034390331</v>
+        <v>1584.13803439033</v>
       </c>
       <c r="E38" t="n">
-        <v>1166.762996961502</v>
+        <v>1166.762996961501</v>
       </c>
       <c r="F38" t="n">
-        <v>755.2952747835855</v>
+        <v>755.2952747835852</v>
       </c>
       <c r="G38" t="n">
         <v>370.2971508197255</v>
       </c>
       <c r="H38" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I38" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J38" t="n">
         <v>532.8213911287357</v>
@@ -7196,7 +7196,7 @@
         <v>4797.21997670207</v>
       </c>
       <c r="R38" t="n">
-        <v>4878.335183790893</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="S38" t="n">
         <v>4811.083017387606</v>
@@ -7245,10 +7245,10 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H39" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I39" t="n">
-        <v>123.6303768362755</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="J39" t="n">
         <v>448.1887018024878</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1061.826912397567</v>
+        <v>1061.826912397566</v>
       </c>
       <c r="C40" t="n">
-        <v>905.6649082936675</v>
+        <v>905.6649082936667</v>
       </c>
       <c r="D40" t="n">
-        <v>756.1866229080663</v>
+        <v>756.1866229080656</v>
       </c>
       <c r="E40" t="n">
-        <v>602.8283265716797</v>
+        <v>602.828326571679</v>
       </c>
       <c r="F40" t="n">
-        <v>442.520979946312</v>
+        <v>442.5209799463113</v>
       </c>
       <c r="G40" t="n">
-        <v>293.3294123850158</v>
+        <v>293.3294123850151</v>
       </c>
       <c r="H40" t="n">
-        <v>169.8269454882664</v>
+        <v>169.8269454882658</v>
       </c>
       <c r="I40" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J40" t="n">
         <v>200.2197420758676</v>
@@ -7339,13 +7339,13 @@
         <v>925.334784885684</v>
       </c>
       <c r="M40" t="n">
-        <v>1400.892005301956</v>
+        <v>1400.892005301957</v>
       </c>
       <c r="N40" t="n">
         <v>1859.224161694961</v>
       </c>
       <c r="O40" t="n">
-        <v>2294.966764156102</v>
+        <v>2294.966764156103</v>
       </c>
       <c r="P40" t="n">
         <v>2658.547011361804</v>
@@ -7354,28 +7354,28 @@
         <v>2842.813139461496</v>
       </c>
       <c r="R40" t="n">
-        <v>2837.795025579745</v>
+        <v>2837.795025579744</v>
       </c>
       <c r="S40" t="n">
-        <v>2694.953364290618</v>
+        <v>2694.953364290617</v>
       </c>
       <c r="T40" t="n">
-        <v>2465.473625281949</v>
+        <v>2465.473625281948</v>
       </c>
       <c r="U40" t="n">
-        <v>2203.44033194793</v>
+        <v>2203.440331947929</v>
       </c>
       <c r="V40" t="n">
-        <v>1932.884531231237</v>
+        <v>1932.884531231236</v>
       </c>
       <c r="W40" t="n">
-        <v>1677.257834230405</v>
+        <v>1677.257834230404</v>
       </c>
       <c r="X40" t="n">
-        <v>1448.265786976693</v>
+        <v>1448.265786976692</v>
       </c>
       <c r="Y40" t="n">
-        <v>1237.245823703678</v>
+        <v>1237.245823703677</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2425.390877206709</v>
+        <v>2425.390877206711</v>
       </c>
       <c r="C41" t="n">
-        <v>2003.648111803009</v>
+        <v>2003.64811180301</v>
       </c>
       <c r="D41" t="n">
-        <v>1584.138034390329</v>
+        <v>1584.138034390331</v>
       </c>
       <c r="E41" t="n">
-        <v>1166.7629969615</v>
+        <v>1166.762996961502</v>
       </c>
       <c r="F41" t="n">
-        <v>755.2952747835848</v>
+        <v>755.2952747835856</v>
       </c>
       <c r="G41" t="n">
         <v>370.2971508197255</v>
@@ -7418,19 +7418,19 @@
         <v>2442.231649339773</v>
       </c>
       <c r="M41" t="n">
-        <v>2523.346856428595</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="N41" t="n">
-        <v>2523.346856428595</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="O41" t="n">
-        <v>3503.526522998902</v>
+        <v>3422.411315910079</v>
       </c>
       <c r="P41" t="n">
-        <v>4331.836397832298</v>
+        <v>4250.721190743476</v>
       </c>
       <c r="Q41" t="n">
-        <v>4878.335183790892</v>
+        <v>4797.21997670207</v>
       </c>
       <c r="R41" t="n">
         <v>4878.335183790892</v>
@@ -7439,22 +7439,22 @@
         <v>4811.083017387606</v>
       </c>
       <c r="T41" t="n">
-        <v>4607.41549767352</v>
+        <v>4607.415497673521</v>
       </c>
       <c r="U41" t="n">
-        <v>4364.592902403412</v>
+        <v>4364.592902403414</v>
       </c>
       <c r="V41" t="n">
-        <v>4018.375659750115</v>
+        <v>4018.375659750116</v>
       </c>
       <c r="W41" t="n">
-        <v>3629.919912574024</v>
+        <v>3629.919912574026</v>
       </c>
       <c r="X41" t="n">
-        <v>3227.177156566211</v>
+        <v>3227.177156566213</v>
       </c>
       <c r="Y41" t="n">
-        <v>2835.29074027874</v>
+        <v>2835.290740278742</v>
       </c>
     </row>
     <row r="42">
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1061.826912397567</v>
+        <v>1061.826912397566</v>
       </c>
       <c r="C43" t="n">
-        <v>905.6649082936675</v>
+        <v>905.6649082936674</v>
       </c>
       <c r="D43" t="n">
-        <v>756.1866229080663</v>
+        <v>756.1866229080662</v>
       </c>
       <c r="E43" t="n">
-        <v>602.8283265716797</v>
+        <v>602.8283265716796</v>
       </c>
       <c r="F43" t="n">
         <v>442.520979946312</v>
@@ -7573,19 +7573,19 @@
         <v>491.0515498823631</v>
       </c>
       <c r="L43" t="n">
-        <v>925.3347848856853</v>
+        <v>925.334784885684</v>
       </c>
       <c r="M43" t="n">
-        <v>1400.892005301958</v>
+        <v>1400.892005301957</v>
       </c>
       <c r="N43" t="n">
-        <v>1859.224161694963</v>
+        <v>1859.224161694961</v>
       </c>
       <c r="O43" t="n">
-        <v>2294.966764156104</v>
+        <v>2294.966764156103</v>
       </c>
       <c r="P43" t="n">
-        <v>2658.547011361806</v>
+        <v>2658.547011361805</v>
       </c>
       <c r="Q43" t="n">
         <v>2842.813139461497</v>
@@ -7594,25 +7594,25 @@
         <v>2837.795025579745</v>
       </c>
       <c r="S43" t="n">
-        <v>2694.953364290618</v>
+        <v>2694.953364290617</v>
       </c>
       <c r="T43" t="n">
-        <v>2465.473625281949</v>
+        <v>2465.473625281948</v>
       </c>
       <c r="U43" t="n">
-        <v>2203.440331947931</v>
+        <v>2203.44033194793</v>
       </c>
       <c r="V43" t="n">
-        <v>1932.884531231237</v>
+        <v>1932.884531231236</v>
       </c>
       <c r="W43" t="n">
-        <v>1677.257834230405</v>
+        <v>1677.257834230404</v>
       </c>
       <c r="X43" t="n">
         <v>1448.265786976693</v>
       </c>
       <c r="Y43" t="n">
-        <v>1237.245823703678</v>
+        <v>1237.245823703677</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2425.390877206709</v>
+        <v>2425.390877206711</v>
       </c>
       <c r="C44" t="n">
-        <v>2003.648111803009</v>
+        <v>2003.64811180301</v>
       </c>
       <c r="D44" t="n">
-        <v>1584.138034390329</v>
+        <v>1584.138034390331</v>
       </c>
       <c r="E44" t="n">
-        <v>1166.7629969615</v>
+        <v>1166.762996961502</v>
       </c>
       <c r="F44" t="n">
-        <v>755.2952747835848</v>
+        <v>755.2952747835856</v>
       </c>
       <c r="G44" t="n">
         <v>370.2971508197255</v>
@@ -7676,22 +7676,22 @@
         <v>4811.083017387606</v>
       </c>
       <c r="T44" t="n">
-        <v>4607.41549767352</v>
+        <v>4607.415497673521</v>
       </c>
       <c r="U44" t="n">
-        <v>4364.592902403412</v>
+        <v>4364.592902403414</v>
       </c>
       <c r="V44" t="n">
-        <v>4018.375659750115</v>
+        <v>4018.375659750116</v>
       </c>
       <c r="W44" t="n">
-        <v>3629.919912574024</v>
+        <v>3629.919912574026</v>
       </c>
       <c r="X44" t="n">
-        <v>3227.177156566211</v>
+        <v>3227.177156566213</v>
       </c>
       <c r="Y44" t="n">
-        <v>2835.29074027874</v>
+        <v>2835.290740278742</v>
       </c>
     </row>
     <row r="45">
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1061.826912397565</v>
+        <v>1061.826912397566</v>
       </c>
       <c r="C46" t="n">
-        <v>905.6649082936664</v>
+        <v>905.6649082936674</v>
       </c>
       <c r="D46" t="n">
-        <v>756.1866229080651</v>
+        <v>756.1866229080662</v>
       </c>
       <c r="E46" t="n">
-        <v>602.8283265716785</v>
+        <v>602.8283265716796</v>
       </c>
       <c r="F46" t="n">
-        <v>442.5209799463108</v>
+        <v>442.520979946312</v>
       </c>
       <c r="G46" t="n">
-        <v>293.3294123850146</v>
+        <v>293.3294123850158</v>
       </c>
       <c r="H46" t="n">
         <v>169.8269454882664</v>
@@ -7834,10 +7834,10 @@
         <v>2694.953364290617</v>
       </c>
       <c r="T46" t="n">
-        <v>2465.473625281948</v>
+        <v>2465.473625281949</v>
       </c>
       <c r="U46" t="n">
-        <v>2203.440331947929</v>
+        <v>2203.44033194793</v>
       </c>
       <c r="V46" t="n">
         <v>1932.884531231236</v>
@@ -7846,10 +7846,10 @@
         <v>1677.257834230404</v>
       </c>
       <c r="X46" t="n">
-        <v>1448.265786976692</v>
+        <v>1448.265786976693</v>
       </c>
       <c r="Y46" t="n">
-        <v>1237.245823703676</v>
+        <v>1237.245823703677</v>
       </c>
     </row>
   </sheetData>
@@ -7976,22 +7976,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>407.152590549595</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M2" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N2" t="n">
-        <v>424.2958575201044</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -8000,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8061,7 +8061,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8073,7 +8073,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -8134,28 +8134,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>35.25505765581501</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>409.401749030468</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,28 +8213,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>632.8234408380854</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>77.54539097102611</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>632.8234408380854</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8289,25 +8289,25 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>358.9284720888816</v>
+        <v>414.3932814337376</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>632.8234408380853</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>632.8234408380852</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8374,16 +8374,16 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>56.52305090189834</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
@@ -8392,7 +8392,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>119.9805436479969</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,19 +8450,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
-        <v>236.2898988798406</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="N8" t="n">
-        <v>424.2958575201044</v>
+        <v>640.5448952297625</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -8471,10 +8471,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>540.0049805212334</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,28 +8608,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8690,19 +8690,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N11" t="n">
-        <v>923.8843579745981</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>987.6665281204157</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
@@ -8769,7 +8769,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>842.7780726850283</v>
@@ -9170,10 +9170,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>753.9218057523913</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9185,7 +9185,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9401,28 +9401,28 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>583.0591140826373</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9641,13 +9641,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>60.59188538505123</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -10355,10 +10355,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10595,7 +10595,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10607,7 +10607,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697543</v>
+        <v>81.93455261497184</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,7 +10665,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>81.93455261497274</v>
+        <v>81.93455261497184</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>81.93455261497229</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>81.93455261497184</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -22544,25 +22544,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>216.911854345436</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>7.254829457195569</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>91.14172002391497</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22607,13 +22607,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>305.1113129166939</v>
       </c>
     </row>
     <row r="3">
@@ -23264,7 +23264,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23273,10 +23273,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23315,7 +23315,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>328.8332722441731</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>144.1344859240869</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>140.7232059832957</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="14">
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23662,13 +23662,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>135.3636110865066</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>139.5921776627276</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23750,7 +23750,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>-1.151023720780131e-12</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>63.43016517136707</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23902,13 +23902,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.78272691405346</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24142,7 +24142,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -24175,10 +24175,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T22" t="n">
-        <v>120.4463752142717</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,13 +24421,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>229.4233680290252</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>102.9863699957348</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>15.21302026266341</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>7.673861546209082e-13</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>9.805489753489383e-13</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>4.209965709378594e-13</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>5.968558980384842e-13</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -26038,7 +26038,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>1.151079231931362e-12</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>858420.4480367042</v>
+        <v>705815.0637721744</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>929846.883599748</v>
+        <v>936262.4558661444</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>929846.883599748</v>
+        <v>937329.7848343485</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>776499.8389679715</v>
+        <v>935974.5125726289</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>935974.5125726293</v>
+        <v>935974.5125726289</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>935974.5125726289</v>
+        <v>935974.512572629</v>
       </c>
     </row>
     <row r="9">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>951767.0633528247</v>
+        <v>950380.0171122951</v>
       </c>
     </row>
     <row r="14">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>24706.58847796031</v>
+        <v>20218.1948231212</v>
       </c>
       <c r="C2" t="n">
         <v>26807.36599452042</v>
@@ -26320,7 +26320,7 @@
         <v>26807.36599452042</v>
       </c>
       <c r="E2" t="n">
-        <v>21854.48555202849</v>
+        <v>26342.87920686761</v>
       </c>
       <c r="F2" t="n">
         <v>26342.87920686762</v>
@@ -26366,16 +26366,16 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>67369.14939246228</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>10776.30320106417</v>
       </c>
       <c r="E3" t="n">
-        <v>168210.0880864998</v>
+        <v>182355.1092210498</v>
       </c>
       <c r="F3" t="n">
-        <v>83262.72935658728</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26390,16 +26390,16 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53668.32706338212</v>
       </c>
       <c r="L3" t="n">
-        <v>12988.56827099788</v>
+        <v>21768.74196143517</v>
       </c>
       <c r="M3" t="n">
-        <v>140394.22459628</v>
+        <v>137577.700737852</v>
       </c>
       <c r="N3" t="n">
-        <v>56802.80065713893</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,28 +26415,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>163583.4402648853</v>
+        <v>112346.8938574592</v>
       </c>
       <c r="C4" t="n">
-        <v>187564.5330558133</v>
+        <v>146256.0480753017</v>
       </c>
       <c r="D4" t="n">
-        <v>187564.5330558133</v>
+        <v>139383.7472389045</v>
       </c>
       <c r="E4" t="n">
-        <v>34116.27680298295</v>
+        <v>41122.95192991263</v>
       </c>
       <c r="F4" t="n">
-        <v>41122.95192991272</v>
+        <v>41122.95192991263</v>
       </c>
       <c r="G4" t="n">
-        <v>41122.95192991272</v>
+        <v>41122.95192991263</v>
       </c>
       <c r="H4" t="n">
-        <v>41122.95192991272</v>
+        <v>41122.95192991266</v>
       </c>
       <c r="I4" t="n">
-        <v>41122.95192991272</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="J4" t="n">
         <v>41122.95192991271</v>
@@ -26445,19 +26445,19 @@
         <v>41122.95192991271</v>
       </c>
       <c r="L4" t="n">
-        <v>46465.30974654597</v>
+        <v>46465.30974654599</v>
       </c>
       <c r="M4" t="n">
-        <v>46465.30974654597</v>
+        <v>55396.201086403</v>
       </c>
       <c r="N4" t="n">
-        <v>55396.20108640299</v>
+        <v>55396.201086403</v>
       </c>
       <c r="O4" t="n">
         <v>55396.20108640301</v>
       </c>
       <c r="P4" t="n">
-        <v>55396.20108640299</v>
+        <v>55396.201086403</v>
       </c>
     </row>
     <row r="5">
@@ -26470,13 +26470,13 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>72103.26520295558</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>60050.12490972127</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="F5" t="n">
         <v>77718.23860579252</v>
@@ -26500,10 +26500,10 @@
         <v>79083.15853826067</v>
       </c>
       <c r="M5" t="n">
-        <v>79083.15853826067</v>
+        <v>75515.61472608971</v>
       </c>
       <c r="N5" t="n">
-        <v>75515.61472608973</v>
+        <v>75515.61472608971</v>
       </c>
       <c r="O5" t="n">
         <v>75515.61472608971</v>
@@ -26519,43 +26519,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-340492.9405838572</v>
+        <v>-294074.2463898403</v>
       </c>
       <c r="C6" t="n">
-        <v>-220181.9551985152</v>
+        <v>-258921.0966761991</v>
       </c>
       <c r="D6" t="n">
-        <v>-220181.9551985152</v>
+        <v>-197565.209007206</v>
       </c>
       <c r="E6" t="n">
-        <v>-240522.0042471755</v>
+        <v>-274876.64488927</v>
       </c>
       <c r="F6" t="n">
-        <v>-175761.0406854249</v>
+        <v>-92521.53566822017</v>
       </c>
       <c r="G6" t="n">
-        <v>-92498.31132883762</v>
+        <v>-92521.53566822017</v>
       </c>
       <c r="H6" t="n">
-        <v>-92498.31132883762</v>
+        <v>-92521.5356682202</v>
       </c>
       <c r="I6" t="n">
-        <v>-92498.31132883762</v>
+        <v>-92521.53566822025</v>
       </c>
       <c r="J6" t="n">
-        <v>-203512.7766738278</v>
+        <v>-203536.0010132104</v>
       </c>
       <c r="K6" t="n">
-        <v>-92498.31132883762</v>
+        <v>-146189.8627316024</v>
       </c>
       <c r="L6" t="n">
-        <v>-111729.6705612841</v>
+        <v>-120509.8442517214</v>
       </c>
       <c r="M6" t="n">
-        <v>-239135.3268865662</v>
+        <v>-241682.1505558243</v>
       </c>
       <c r="N6" t="n">
-        <v>-160907.2504751112</v>
+        <v>-104104.4498179723</v>
       </c>
       <c r="O6" t="n">
         <v>-104104.4498179723</v>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="M2" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="N2" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="O2" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="P2" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="3">
@@ -26790,13 +26790,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>632.8234408380853</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>987.6665281204157</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
         <v>1278.260503384745</v>
@@ -26820,7 +26820,7 @@
         <v>1278.260503384745</v>
       </c>
       <c r="M4" t="n">
-        <v>1278.260503384745</v>
+        <v>1219.583795947723</v>
       </c>
       <c r="N4" t="n">
         <v>1219.583795947723</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27012,16 +27012,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>208.527583317981</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>34.69176576977165</v>
       </c>
       <c r="E4" t="n">
-        <v>563.3706706003114</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="F4" t="n">
-        <v>290.5939752643295</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27036,16 +27036,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>208.527583317981</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>34.69176576977165</v>
       </c>
       <c r="M4" t="n">
-        <v>563.3706706003114</v>
+        <v>552.0685893398661</v>
       </c>
       <c r="N4" t="n">
-        <v>231.9172678273075</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27258,16 +27258,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>208.527583317981</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>34.69176576977165</v>
       </c>
       <c r="M4" t="n">
-        <v>563.3706706003114</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
-        <v>290.5939752643295</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27385,19 +27385,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>173.2277375124654</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,7 +27433,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
@@ -27442,10 +27442,10 @@
         <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>99.09194954664918</v>
       </c>
     </row>
     <row r="3">
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>4.262612750554212</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27549,13 +27549,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,10 +27585,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
@@ -27597,13 +27597,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>185.0147369176343</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>91.86674006413773</v>
+        <v>206.3759370314108</v>
       </c>
       <c r="C5" t="n">
-        <v>9.465190568306582</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>7.254829457195569</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>5.14113987318342</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,7 +27667,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
@@ -27783,7 +27783,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>131.4922631193074</v>
       </c>
       <c r="G7" t="n">
         <v>163.9353622244306</v>
@@ -27819,19 +27819,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>67.8842041684461</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27853,25 +27853,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>113.7278999628231</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>400</v>
       </c>
       <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
         <v>400</v>
       </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27916,7 +27916,7 @@
         <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>253.8775775763891</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>90.92021546249566</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28026,10 +28026,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,10 +28056,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28068,16 +28068,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>60.88150555438375</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="C34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="J34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="K34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="L34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="M34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="N34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="O34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="P34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Q34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="R34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="S34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="J37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="K37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="L37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="M37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="N37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="O37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="P37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Q37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="R37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="S37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I38" t="n">
         <v>0.4126214791313976</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="J40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="K40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="L40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="M40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="N40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="O40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="P40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Q40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="R40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="S40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="J43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="K43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="L43" t="n">
-        <v>16.23571033874862</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="M43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="N43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="O43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874759</v>
       </c>
       <c r="P43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Q43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="R43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="S43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C44" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D44" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E44" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F44" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G44" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H44" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T44" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U44" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V44" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W44" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X44" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y44" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="J46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="K46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="L46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="M46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="N46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="O46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="P46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Q46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="R46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="S46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
   </sheetData>
@@ -34696,22 +34696,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>407.152590549595</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M2" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N2" t="n">
-        <v>424.2958575201044</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -34720,7 +34720,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34781,7 +34781,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34793,7 +34793,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>35.25505765581501</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>409.401749030468</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>632.8234408380854</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>77.54539097102611</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>632.8234408380854</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35009,25 +35009,25 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>358.9284720888816</v>
+        <v>414.3932814337376</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>632.8234408380853</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>632.8234408380852</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -35036,7 +35036,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>56.52305090189834</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>119.9805436479969</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
-        <v>236.2898988798406</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="N8" t="n">
-        <v>424.2958575201044</v>
+        <v>640.5448952297625</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -35191,10 +35191,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,10 +35252,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>540.0049805212334</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35270,7 +35270,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35410,28 +35410,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N11" t="n">
-        <v>923.8843579745981</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>987.6665281204157</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35574,13 +35574,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645585</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512943</v>
+        <v>423.908332551292</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35817,7 +35817,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512943</v>
+        <v>423.908332551292</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35881,19 +35881,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>753.9218057523913</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35905,7 +35905,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743907962</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36048,7 +36048,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
@@ -36121,28 +36121,28 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>583.0591140826373</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36361,13 +36361,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>60.59188538505123</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -37075,10 +37075,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37306,7 +37306,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
@@ -37315,19 +37315,19 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>170.862691669754</v>
+        <v>81.93455261497184</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37470,7 +37470,7 @@
         <v>438.6699343467889</v>
       </c>
       <c r="M37" t="n">
-        <v>480.360828703306</v>
+        <v>480.3608287033061</v>
       </c>
       <c r="N37" t="n">
         <v>462.9617741343479</v>
@@ -37564,7 +37564,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>81.93455261497274</v>
+        <v>81.93455261497184</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37707,19 +37707,19 @@
         <v>438.6699343467889</v>
       </c>
       <c r="M40" t="n">
-        <v>480.3608287033056</v>
+        <v>480.3608287033061</v>
       </c>
       <c r="N40" t="n">
-        <v>462.9617741343477</v>
+        <v>462.9617741343479</v>
       </c>
       <c r="O40" t="n">
-        <v>440.1440428900419</v>
+        <v>440.1440428900416</v>
       </c>
       <c r="P40" t="n">
         <v>367.2527749552542</v>
       </c>
       <c r="Q40" t="n">
-        <v>186.1274021209015</v>
+        <v>186.127402120901</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37786,7 +37786,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>81.93455261497229</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -37795,13 +37795,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>81.93455261497184</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37941,16 +37941,16 @@
         <v>293.7695028348439</v>
       </c>
       <c r="L43" t="n">
-        <v>438.6699343467901</v>
+        <v>438.6699343467889</v>
       </c>
       <c r="M43" t="n">
-        <v>480.360828703306</v>
+        <v>480.3608287033061</v>
       </c>
       <c r="N43" t="n">
         <v>462.9617741343479</v>
       </c>
       <c r="O43" t="n">
-        <v>440.1440428900419</v>
+        <v>440.1440428900421</v>
       </c>
       <c r="P43" t="n">
         <v>367.2527749552542</v>
